--- a/Science/Physics/Assesment/data.xlsx
+++ b/Science/Physics/Assesment/data.xlsx
@@ -49,13 +49,13 @@
     <t xml:space="preserve">Average Time(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Speed (m/s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final Speed (m/s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceleration (m/s/s)</t>
+    <t xml:space="preserve">Average Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Acceleration</t>
   </si>
   <si>
     <t xml:space="preserve">Standard Deviation</t>
@@ -73,7 +73,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,11 +97,19 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,20 +154,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,7 +176,440 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-AU" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="en-AU" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Accleration of Ball Rolling Down a Ramp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Acceleration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.221420149871328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.434568574225703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.660196389940508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.881224351965236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.18053607671029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="8173914"/>
+        <c:axId val="6454639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="8173914"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-AU" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-AU" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Angle (Degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6454639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="6454639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-AU" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-AU" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Average Accleration (m/s/s)
+</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8173914"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-AU" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="36000" y="1179360"/>
+        <a:ext cx="5761800" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -184,323 +617,359 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>50.5</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>4.77</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>4.73</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>4.73</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>4.63</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <f aca="false">AVERAGE(D2:H2)</f>
         <v>4.752</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="2" t="n">
         <f aca="false">B2/I2</f>
         <v>0.526094276094276</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="2" t="n">
         <f aca="false">2*J2</f>
         <v>1.05218855218855</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">K2/I2</f>
         <v>0.221420149871328</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="2" t="n">
         <f aca="false">_xlfn.STDEV.S(D2:H2)</f>
         <v>0.0975704873412038</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="2" t="n">
         <f aca="false">(M2/I2)*100</f>
         <v>2.05325099623745</v>
       </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>50.5</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>3.3</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>3.43</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>3.43</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <f aca="false">AVERAGE(D3:H3)</f>
         <v>3.392</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="2" t="n">
         <f aca="false">B3/I3</f>
         <v>0.737028301886792</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="2" t="n">
         <f aca="false">2*J3</f>
         <v>1.47405660377358</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="2" t="n">
         <f aca="false">K3/I3</f>
         <v>0.434568574225703</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="2" t="n">
         <f aca="false">_xlfn.STDEV.S(D3:H3)</f>
         <v>0.0535723809439156</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="2" t="n">
         <f aca="false">(M3/I3)*100</f>
         <v>1.57937443820506</v>
       </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>50.5</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <f aca="false">AVERAGE(D4:H4)</f>
         <v>2.752</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="2" t="n">
         <f aca="false">B4/I4</f>
         <v>0.90843023255814</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">2*J4</f>
         <v>1.81686046511628</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">K4/I4</f>
         <v>0.660196389940508</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="2" t="n">
         <f aca="false">_xlfn.STDEV.S(D4:H4)</f>
         <v>0.0319374388453426</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="2" t="n">
         <f aca="false">(M4/I4)*100</f>
         <v>1.16051739990344</v>
       </c>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <v>50.5</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>2.37</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>2.37</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <v>2.37</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="2" t="n">
         <v>2.37</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <f aca="false">AVERAGE(D5:H5)</f>
         <v>2.382</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="2" t="n">
         <f aca="false">B5/I5</f>
         <v>1.0495382031906</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="2" t="n">
         <f aca="false">2*J5</f>
         <v>2.09907640638119</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="2" t="n">
         <f aca="false">K5/I5</f>
         <v>0.881224351965236</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="2" t="n">
         <f aca="false">_xlfn.STDEV.S(D5:H5)</f>
         <v>0.0268328157299975</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="2" t="n">
         <f aca="false">(M5/I5)*100</f>
         <v>1.12648260831224</v>
       </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="2" t="n">
         <v>50.5</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="2" t="n">
         <v>2.03</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <f aca="false">AVERAGE(D6:H6)</f>
         <v>2.058</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="2" t="n">
         <f aca="false">B6/I6</f>
         <v>1.21477162293489</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="2" t="n">
         <f aca="false">2*J6</f>
         <v>2.42954324586978</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="2" t="n">
         <f aca="false">K6/I6</f>
         <v>1.18053607671029</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="2" t="n">
         <f aca="false">_xlfn.STDEV.S(D6:H6)</f>
         <v>0.0438178046004134</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="2" t="n">
         <f aca="false">(M6/I6)*100</f>
         <v>2.12914502431552</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="0" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="0" t="n">
+        <f aca="false">L3-L2</f>
+        <v>0.213148424354375</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="0" t="n">
+        <f aca="false">L4-L3</f>
+        <v>0.225627815714805</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="0" t="n">
+        <f aca="false">L5-L4</f>
+        <v>0.221027962024728</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="0" t="n">
+        <f aca="false">L6-L5</f>
+        <v>0.299311724745054</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="0" t="n">
+        <f aca="false">STDEV(L13:L17)</f>
+        <v>0.0357706472215328</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -510,5 +979,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Science/Physics/Assesment/data.xlsx
+++ b/Science/Physics/Assesment/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Angle (Degrees)</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient of Variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -398,11 +400,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8173914"/>
-        <c:axId val="6454639"/>
+        <c:axId val="93204281"/>
+        <c:axId val="89027987"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8173914"/>
+        <c:axId val="93204281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,12 +460,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6454639"/>
+        <c:crossAx val="89027987"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6454639"/>
+        <c:axId val="89027987"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8173914"/>
+        <c:crossAx val="93204281"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -588,9 +590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:colOff>204480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -598,8 +600,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="36000" y="1179360"/>
-        <a:ext cx="5761800" cy="3239280"/>
+        <a:off x="36000" y="1087920"/>
+        <a:ext cx="5764680" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -620,10 +622,10 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
@@ -631,12 +633,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -680,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
@@ -731,7 +733,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>4</v>
       </c>
@@ -782,7 +784,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>6</v>
       </c>
@@ -833,7 +835,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>8</v>
       </c>
@@ -884,7 +886,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>10</v>
       </c>
@@ -935,40 +937,38 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L13" s="0" t="n">
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L14" s="0" t="n">
         <f aca="false">L3-L2</f>
         <v>0.213148424354375</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L15" s="0" t="n">
         <f aca="false">L4-L3</f>
         <v>0.225627815714805</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L16" s="0" t="n">
         <f aca="false">L5-L4</f>
         <v>0.221027962024728</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L17" s="0" t="n">
         <f aca="false">L6-L5</f>
         <v>0.299311724745054</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L19" s="0" t="n">
-        <f aca="false">STDEV(L13:L17)</f>
-        <v>0.0357706472215328</v>
+      <c r="L19" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
